--- a/team_specific_matrix/Bridgewater (VA)_A.xlsx
+++ b/team_specific_matrix/Bridgewater (VA)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.3482142857142857</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.2946428571428572</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
   </sheetData>
